--- a/Umfrage_Phase1/Aufbereitet/Frage 2/Frage2Aufbereitet_U13.xlsx
+++ b/Umfrage_Phase1/Aufbereitet/Frage 2/Frage2Aufbereitet_U13.xlsx
@@ -236,7 +236,7 @@
     <numFmt numFmtId="168" formatCode="hh:mm:ss"/>
     <numFmt numFmtId="169" formatCode="0.00\ %"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,6 +265,11 @@
       <name val="Aptos Narrow"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -368,11 +373,554 @@
       </fill>
     </dxf>
   </dxfs>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFB3B3B3"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFD320"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF420E"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF004586"/>
+      <rgbColor rgb="FF579D1C"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:explosion val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Frage 2 Aufbereitet'!$A$3:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Instagram</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>TikTok</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Snapchat</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Youtube</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Frage 2 Aufbereitet'!$B$3:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:explosion val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Frage 2 Aufbereitet'!$A$3:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Instagram</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>TikTok</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Snapchat</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Youtube</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Frage 2 Aufbereitet'!$C$3:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>16200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>161280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>86040</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>99000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="3267360" y="161280"/>
+        <a:ext cx="5759640" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1097,7 +1645,7 @@
   <dimension ref="A2:C7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="O11" activeCellId="0" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1183,5 +1731,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;KffffffSeite &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>